--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>24/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/08/2021</t>
+          <t>19/08/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/04/2022</t>
+          <t>14/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -1220,7 +1220,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -11907,7 +11907,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F258" t="n">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>18/08/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/07/2022</t>
+          <t>05/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Aguas Décima S.A.</t>
+          <t>Aguas Décimas S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -1940,7 +1940,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/01/2023</t>
+          <t>13/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8162,16 +8162,16 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8180,12 +8180,12 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ACCIONA ENERGIA CHILE S.A.</t>
+          <t>Acciona Energía Chile SpA</t>
         </is>
       </c>
       <c r="F92" t="n">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/08/2021</t>
+          <t>19/08/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/08/2021</t>
+          <t>18/08/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -12003,7 +12003,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -12819,7 +12819,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F260" t="n">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8210,16 +8210,16 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,16 +8306,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,16 +8306,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -434,7 +434,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,16 +8306,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ESTUDIO DE IMPACTO AMBIENTAL NUEVO PUENTE COCHRANE</t>
+          <t>Estudio de Impacto Ambiental Nuevo Puente Cochrane</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8258,16 +8258,16 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,16 +8306,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -12099,7 +12099,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -12915,7 +12915,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F262" t="n">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F108" t="n">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,16 +8306,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,16 +8354,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8306,16 +8306,16 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>INMOBILIARIA SOCOVESA S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>9309</v>
+        <v>80</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO FUNDO CAU CAU (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8354,16 +8354,16 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>INMOBILIARIA SOCOVESA S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>80</v>
+        <v>9309</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2200471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">

--- a/data/Valdivia.xlsx
+++ b/data/Valdivia.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>11/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
